--- a/target/test-classes/ExcelData/OrangeHRM.xlsx
+++ b/target/test-classes/ExcelData/OrangeHRM.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\muhammed.hashin\eclipse-workspace\OrangeHRMHybridFramework\src\test\resources\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\muhammed.hashin\eclipse-workspace\SeleniumMavenHybridFramework\src\test\resources\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FD5CFC7-375F-466C-8886-B9F47631D36C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C80B769-45AF-436B-B13B-9FFC38C14EF0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>TestName</t>
   </si>
@@ -36,12 +36,6 @@
     <t>Password</t>
   </si>
   <si>
-    <t>Admin</t>
-  </si>
-  <si>
-    <t>admin123</t>
-  </si>
-  <si>
     <t>Execute</t>
   </si>
   <si>
@@ -58,6 +52,18 @@
   </si>
   <si>
     <t>dmin748</t>
+  </si>
+  <si>
+    <t>muhammedhashin16@gmail.com</t>
+  </si>
+  <si>
+    <t>Selenium@2021</t>
+  </si>
+  <si>
+    <t>addUser</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -93,8 +99,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -375,18 +383,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.7109375" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -394,7 +402,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -405,30 +413,44 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s">
         <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
